--- a/5) Март/915/915 Системное программирование_март.xlsx
+++ b/5) Март/915/915 Системное программирование_март.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\5) Март\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E6FBC0-1375-46DC-82F0-EE0ED8CC69E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554834E-7357-4F43-A399-C8E2BBAD298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="1725" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="41">
   <si>
     <t>ФИО</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Лекция 8</t>
-  </si>
-  <si>
-    <t>Заполнен до сюда</t>
   </si>
   <si>
     <t>Лекция 9</t>
@@ -192,11 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB26"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X53" sqref="X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,12 +493,12 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="16.140625" customWidth="1"/>
@@ -520,7 +515,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>45717</v>
       </c>
       <c r="C1" s="1">
@@ -553,10 +548,10 @@
       <c r="L1" s="1">
         <v>45727</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O1" s="1">
@@ -606,7 +601,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
       <c r="C2" t="s">
         <v>30</v>
       </c>
@@ -619,7 +613,7 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="2"/>
       <c r="P2" t="s">
         <v>31</v>
       </c>
@@ -646,7 +640,6 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>31</v>
       </c>
@@ -659,7 +652,7 @@
       <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="2"/>
       <c r="P3" t="s">
         <v>30</v>
       </c>
@@ -686,7 +679,6 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -699,7 +691,7 @@
       <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="2"/>
       <c r="P4" t="s">
         <v>31</v>
       </c>
@@ -726,7 +718,6 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -739,7 +730,7 @@
       <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="2"/>
       <c r="P5" t="s">
         <v>30</v>
       </c>
@@ -766,7 +757,6 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>31</v>
       </c>
@@ -779,7 +769,7 @@
       <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="2"/>
       <c r="P6" t="s">
         <v>30</v>
       </c>
@@ -806,7 +796,6 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -819,7 +808,7 @@
       <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="2"/>
       <c r="P7" t="s">
         <v>31</v>
       </c>
@@ -846,7 +835,6 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -859,7 +847,7 @@
       <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="4"/>
+      <c r="N8" s="2"/>
       <c r="P8" t="s">
         <v>31</v>
       </c>
@@ -886,7 +874,6 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -899,7 +886,7 @@
       <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="4"/>
+      <c r="N9" s="2"/>
       <c r="P9" t="s">
         <v>31</v>
       </c>
@@ -926,7 +913,6 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -939,7 +925,7 @@
       <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="N10" s="2"/>
       <c r="P10" t="s">
         <v>31</v>
       </c>
@@ -966,7 +952,6 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>30</v>
       </c>
@@ -979,7 +964,7 @@
       <c r="J11" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="2"/>
       <c r="P11" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +991,6 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1003,7 @@
       <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="2"/>
       <c r="P12" t="s">
         <v>31</v>
       </c>
@@ -1046,7 +1030,6 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1042,7 @@
       <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="2"/>
       <c r="P13" t="s">
         <v>31</v>
       </c>
@@ -1086,7 +1069,6 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1081,7 @@
       <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="2"/>
       <c r="P14" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1108,6 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1120,7 @@
       <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="2"/>
       <c r="P15" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1147,6 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1159,7 @@
       <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="2"/>
       <c r="P16" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +1186,6 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1198,7 @@
       <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="2"/>
       <c r="P17" t="s">
         <v>31</v>
       </c>
@@ -1246,7 +1225,6 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -1259,7 +1237,7 @@
       <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="2"/>
       <c r="P18" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1264,6 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1276,7 @@
       <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="2"/>
       <c r="P19" t="s">
         <v>30</v>
       </c>
@@ -1326,7 +1303,6 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -1339,7 +1315,7 @@
       <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="2"/>
       <c r="P20" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1342,6 @@
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1354,7 @@
       <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="2"/>
       <c r="P21" t="s">
         <v>31</v>
       </c>
@@ -1406,7 +1381,6 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1393,7 @@
       <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="2"/>
       <c r="P22" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1420,6 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1432,7 @@
       <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="2"/>
       <c r="P23" t="s">
         <v>31</v>
       </c>
@@ -1486,7 +1459,6 @@
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1471,7 @@
       <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="2"/>
       <c r="P24" t="s">
         <v>31</v>
       </c>
@@ -1526,7 +1498,6 @@
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1510,7 @@
       <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="2"/>
       <c r="P25" t="s">
         <v>30</v>
       </c>
@@ -1566,7 +1537,6 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1549,7 @@
       <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="4"/>
+      <c r="N26" s="2"/>
       <c r="P26" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1591,7 @@
       <c r="L27" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N27" t="s">
@@ -1630,7 +1600,7 @@
       <c r="O27" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S27" t="s">
@@ -1701,32 +1671,32 @@
       <c r="Q28" t="s">
         <v>35</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="S28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s">
         <v>35</v>
       </c>
       <c r="W28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s">
         <v>35</v>
       </c>
       <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" t="s">
         <v>40</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>41</v>
       </c>
       <c r="AA28" t="s">
         <v>35</v>
@@ -1741,9 +1711,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="V31" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="V31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
